--- a/public/planning/Planning Provisionnel Atelier TPI.xlsx
+++ b/public/planning/Planning Provisionnel Atelier TPI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planning prévisionnel" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="44">
   <si>
     <t>Titre du TPI</t>
   </si>
@@ -147,12 +147,6 @@
     <t>Bilan</t>
   </si>
   <si>
-    <t>Sauvegardes</t>
-  </si>
-  <si>
-    <t>Tous</t>
-  </si>
-  <si>
     <t>Fenêtre modale animal</t>
   </si>
   <si>
@@ -173,7 +167,7 @@
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="[hh]:mm"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,29 +219,24 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color theme="0"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,6 +265,36 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF1ABC9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -787,7 +806,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -922,127 +941,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="3" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="3" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="3" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1061,46 +967,258 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="8" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="8" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="8" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="9" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="10" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="10" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="20" fontId="11" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="20" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="20" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="41">
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDBE5F1"/>
+          <bgColor rgb="FFDBE5F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDBE5F1"/>
+          <bgColor rgb="FFDBE5F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDBE5F1"/>
+          <bgColor rgb="FFDBE5F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDBE5F1"/>
+          <bgColor rgb="FFDBE5F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDBE5F1"/>
+          <bgColor rgb="FFDBE5F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDBE5F1"/>
+          <bgColor rgb="FFDBE5F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDBE5F1"/>
+          <bgColor rgb="FFDBE5F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDBE5F1"/>
+          <bgColor rgb="FFDBE5F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDBE5F1"/>
+          <bgColor rgb="FFDBE5F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1574,9 +1692,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB999"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1605,10 +1723,10 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="101" t="s">
+      <c r="D1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="102"/>
+      <c r="E1" s="57"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -1698,13 +1816,13 @@
       <c r="AB3" s="3"/>
     </row>
     <row r="4" spans="1:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="61" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -1740,10 +1858,10 @@
       <c r="N4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="94" t="s">
+      <c r="O4" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="95"/>
+      <c r="P4" s="63"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
@@ -1758,9 +1876,9 @@
       <c r="AB4" s="3"/>
     </row>
     <row r="5" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="104"/>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="9">
         <v>45670</v>
       </c>
@@ -1794,8 +1912,8 @@
       <c r="N5" s="9">
         <v>45740</v>
       </c>
-      <c r="O5" s="96"/>
-      <c r="P5" s="97"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="65"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
@@ -1826,8 +1944,8 @@
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
-      <c r="O6" s="98"/>
-      <c r="P6" s="90"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="51"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
@@ -1864,11 +1982,11 @@
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
-      <c r="O7" s="87">
+      <c r="O7" s="52">
         <f t="shared" ref="O7:O10" si="0">SUM(D7:N7)</f>
         <v>0.10416666666666667</v>
       </c>
-      <c r="P7" s="88"/>
+      <c r="P7" s="53"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
@@ -1905,11 +2023,11 @@
       <c r="L8" s="25"/>
       <c r="M8" s="25"/>
       <c r="N8" s="26"/>
-      <c r="O8" s="87">
+      <c r="O8" s="52">
         <f t="shared" si="0"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="P8" s="88"/>
+      <c r="P8" s="53"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
@@ -1946,11 +2064,11 @@
       <c r="L9" s="25"/>
       <c r="M9" s="25"/>
       <c r="N9" s="26"/>
-      <c r="O9" s="87">
+      <c r="O9" s="52">
         <f t="shared" si="0"/>
         <v>7.6388888888888895E-2</v>
       </c>
-      <c r="P9" s="88"/>
+      <c r="P9" s="53"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
@@ -1987,11 +2105,11 @@
       <c r="L10" s="25"/>
       <c r="M10" s="25"/>
       <c r="N10" s="26"/>
-      <c r="O10" s="87">
+      <c r="O10" s="52">
         <f t="shared" si="0"/>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="P10" s="88"/>
+      <c r="P10" s="53"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -2021,8 +2139,8 @@
       <c r="L11" s="31"/>
       <c r="M11" s="31"/>
       <c r="N11" s="30"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="90"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="51"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
@@ -2059,11 +2177,11 @@
       <c r="L12" s="25"/>
       <c r="M12" s="25"/>
       <c r="N12" s="26"/>
-      <c r="O12" s="87">
+      <c r="O12" s="52">
         <f>SUM(D12:N12)</f>
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="P12" s="88"/>
+      <c r="P12" s="53"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
@@ -2094,8 +2212,8 @@
       <c r="L13" s="31"/>
       <c r="M13" s="31"/>
       <c r="N13" s="30"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="90"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="51"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
@@ -2111,7 +2229,7 @@
     </row>
     <row r="14" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>23</v>
@@ -2132,11 +2250,11 @@
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
       <c r="N14" s="34"/>
-      <c r="O14" s="87">
+      <c r="O14" s="52">
         <f t="shared" ref="O14:O18" si="1">SUM(D14:N14)</f>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="P14" s="88"/>
+      <c r="P14" s="53"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -2175,11 +2293,11 @@
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
       <c r="N15" s="34"/>
-      <c r="O15" s="87">
+      <c r="O15" s="52">
         <f t="shared" si="1"/>
         <v>6.9444444444444448E-2</v>
       </c>
-      <c r="P15" s="88"/>
+      <c r="P15" s="53"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -2195,7 +2313,7 @@
     </row>
     <row r="16" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>23</v>
@@ -2218,11 +2336,11 @@
       <c r="L16" s="36"/>
       <c r="M16" s="36"/>
       <c r="N16" s="26"/>
-      <c r="O16" s="87">
+      <c r="O16" s="52">
         <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
-      <c r="P16" s="88"/>
+      <c r="P16" s="53"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
@@ -2238,7 +2356,7 @@
     </row>
     <row r="17" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>23</v>
@@ -2261,11 +2379,11 @@
       <c r="L17" s="36"/>
       <c r="M17" s="36"/>
       <c r="N17" s="26"/>
-      <c r="O17" s="87">
+      <c r="O17" s="52">
         <f t="shared" si="1"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="P17" s="88"/>
+      <c r="P17" s="53"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
@@ -2281,7 +2399,7 @@
     </row>
     <row r="18" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>23</v>
@@ -2302,11 +2420,11 @@
       <c r="L18" s="36"/>
       <c r="M18" s="36"/>
       <c r="N18" s="26"/>
-      <c r="O18" s="87">
+      <c r="O18" s="52">
         <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="P18" s="88"/>
+      <c r="P18" s="53"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
@@ -2337,8 +2455,8 @@
       <c r="L19" s="38"/>
       <c r="M19" s="38"/>
       <c r="N19" s="30"/>
-      <c r="O19" s="89"/>
-      <c r="P19" s="90"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="51"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
@@ -2377,11 +2495,11 @@
       <c r="L20" s="34"/>
       <c r="M20" s="34"/>
       <c r="N20" s="39"/>
-      <c r="O20" s="87">
+      <c r="O20" s="52">
         <f>SUM(D20:N20)</f>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="P20" s="88"/>
+      <c r="P20" s="53"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
@@ -2412,8 +2530,8 @@
       <c r="L21" s="31"/>
       <c r="M21" s="31"/>
       <c r="N21" s="30"/>
-      <c r="O21" s="89"/>
-      <c r="P21" s="90"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="51"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
@@ -2470,11 +2588,11 @@
       <c r="N22" s="24">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="O22" s="87">
+      <c r="O22" s="52">
         <f t="shared" ref="O22:O24" si="2">SUM(D22:N22)</f>
         <v>7.6388888888888909E-2</v>
       </c>
-      <c r="P22" s="88"/>
+      <c r="P22" s="53"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
@@ -2515,11 +2633,11 @@
       <c r="L23" s="26"/>
       <c r="M23" s="26"/>
       <c r="N23" s="40"/>
-      <c r="O23" s="87">
+      <c r="O23" s="52">
         <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="P23" s="88"/>
+      <c r="P23" s="53"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
@@ -2558,11 +2676,11 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="N24" s="41"/>
-      <c r="O24" s="87">
+      <c r="O24" s="52">
         <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="P24" s="88"/>
+      <c r="P24" s="53"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
@@ -2593,8 +2711,8 @@
       <c r="L25" s="31"/>
       <c r="M25" s="31"/>
       <c r="N25" s="31"/>
-      <c r="O25" s="89"/>
-      <c r="P25" s="90"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="51"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
@@ -2631,11 +2749,11 @@
       <c r="N26" s="43">
         <v>0.375</v>
       </c>
-      <c r="O26" s="87">
+      <c r="O26" s="52">
         <f t="shared" ref="O26:O27" si="3">SUM(D26:N26)</f>
         <v>0.375</v>
       </c>
-      <c r="P26" s="88"/>
+      <c r="P26" s="53"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
@@ -2672,11 +2790,11 @@
       <c r="N27" s="22">
         <v>0.375</v>
       </c>
-      <c r="O27" s="87">
+      <c r="O27" s="52">
         <f t="shared" si="3"/>
         <v>0.375</v>
       </c>
-      <c r="P27" s="88"/>
+      <c r="P27" s="53"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
@@ -2693,59 +2811,59 @@
     <row r="28" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="99">
+      <c r="C28" s="54">
         <f>SUM(C7:C27)</f>
         <v>1.75</v>
       </c>
-      <c r="D28" s="91">
+      <c r="D28" s="68">
         <f t="shared" ref="D28:N28" si="4">SUM(D6:D27)</f>
         <v>0.13194444444444445</v>
       </c>
-      <c r="E28" s="91">
+      <c r="E28" s="68">
         <f t="shared" si="4"/>
         <v>0.125</v>
       </c>
-      <c r="F28" s="91">
+      <c r="F28" s="68">
         <f t="shared" si="4"/>
         <v>0.10416666666666667</v>
       </c>
-      <c r="G28" s="91">
+      <c r="G28" s="68">
         <f t="shared" si="4"/>
         <v>0.125</v>
       </c>
-      <c r="H28" s="91">
+      <c r="H28" s="68">
         <f t="shared" si="4"/>
         <v>7.6388888888888895E-2</v>
       </c>
-      <c r="I28" s="91">
+      <c r="I28" s="68">
         <f t="shared" si="4"/>
         <v>0.11805555555555555</v>
       </c>
-      <c r="J28" s="91">
+      <c r="J28" s="68">
         <f t="shared" si="4"/>
         <v>0.125</v>
       </c>
-      <c r="K28" s="91">
+      <c r="K28" s="68">
         <f t="shared" si="4"/>
         <v>9.0277777777777776E-2</v>
       </c>
-      <c r="L28" s="91">
+      <c r="L28" s="68">
         <f t="shared" si="4"/>
         <v>4.8611111111111105E-2</v>
       </c>
-      <c r="M28" s="91">
+      <c r="M28" s="68">
         <f t="shared" si="4"/>
         <v>4.8611111111111105E-2</v>
       </c>
-      <c r="N28" s="91">
+      <c r="N28" s="68">
         <f t="shared" si="4"/>
         <v>0.75694444444444442</v>
       </c>
-      <c r="O28" s="107">
+      <c r="O28" s="70">
         <f>SUM(O6:P27)</f>
         <v>1.75</v>
       </c>
-      <c r="P28" s="108"/>
+      <c r="P28" s="71"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
@@ -2762,20 +2880,20 @@
     <row r="29" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="92"/>
-      <c r="N29" s="92"/>
-      <c r="O29" s="109"/>
-      <c r="P29" s="97"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="65"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
@@ -31679,28 +31797,9 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
     <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="O4:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
     <mergeCell ref="O18:P18"/>
     <mergeCell ref="O19:P19"/>
     <mergeCell ref="O20:P20"/>
@@ -31717,66 +31816,85 @@
     <mergeCell ref="M28:M29"/>
     <mergeCell ref="N28:N29"/>
     <mergeCell ref="O28:P29"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="O4:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:N41 O37">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:N28">
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
       <formula>0.3333333333</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="3" operator="greaterThan">
       <formula>0.00001157407407</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="25" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E25 H24:H25 N24:N25">
-    <cfRule type="cellIs" dxfId="24" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="5" operator="greaterThan">
       <formula>0.00001157407407</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26 G26 I26 N26:N27">
-    <cfRule type="cellIs" dxfId="23" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="6" operator="greaterThan">
       <formula>0.00001157407407</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="cellIs" dxfId="22" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="7" operator="greaterThan">
       <formula>0.00001157407407</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="21" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="8" operator="greaterThan">
       <formula>0.00001157407407</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:M26">
-    <cfRule type="cellIs" dxfId="20" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="9" operator="greaterThan">
       <formula>0.00001157407407</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23:N25">
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="10" operator="greaterThan">
       <formula>0.00001157407407</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7:O10 O12">
-    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="11" operator="equal">
       <formula>$C7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14:O33 O35:O38 O40:O41">
-    <cfRule type="cellIs" dxfId="17" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="12" operator="equal">
       <formula>$C14</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31789,9 +31907,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31810,20 +31928,20 @@
     <col min="23" max="28" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:28" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="102"/>
+      <c r="E1" s="57"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -31848,10 +31966,14 @@
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+    <row r="2" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="D2" s="5"/>
       <c r="E2" s="7"/>
       <c r="F2" s="3"/>
@@ -31878,7 +32000,7 @@
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -31908,53 +32030,53 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
     </row>
-    <row r="4" spans="1:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="116" t="s">
+    <row r="4" spans="1:28" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="118" t="s">
+      <c r="C4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="52" t="s">
+      <c r="K4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="52" t="s">
+      <c r="L4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="52" t="s">
+      <c r="M4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="52" t="s">
+      <c r="N4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="119" t="s">
+      <c r="O4" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="95"/>
+      <c r="P4" s="63"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
@@ -31968,45 +32090,45 @@
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
     </row>
-    <row r="5" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="104"/>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="53">
+    <row r="5" spans="1:28" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="59"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="9">
         <v>45670</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="9">
         <v>45677</v>
       </c>
-      <c r="F5" s="53">
+      <c r="F5" s="9">
+        <v>45684</v>
+      </c>
+      <c r="G5" s="9">
         <v>45691</v>
       </c>
-      <c r="G5" s="53">
+      <c r="H5" s="9">
         <v>45698</v>
       </c>
-      <c r="H5" s="53">
+      <c r="I5" s="9">
+        <v>45705</v>
+      </c>
+      <c r="J5" s="9">
+        <v>45712</v>
+      </c>
+      <c r="K5" s="9">
         <v>45719</v>
       </c>
-      <c r="I5" s="53">
+      <c r="L5" s="9">
         <v>45726</v>
       </c>
-      <c r="J5" s="53">
+      <c r="M5" s="9">
         <v>45733</v>
       </c>
-      <c r="K5" s="53">
+      <c r="N5" s="9">
         <v>45740</v>
       </c>
-      <c r="L5" s="53">
-        <v>45747</v>
-      </c>
-      <c r="M5" s="53">
-        <v>45754</v>
-      </c>
-      <c r="N5" s="53">
-        <v>45730</v>
-      </c>
-      <c r="O5" s="96"/>
-      <c r="P5" s="97"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="65"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
@@ -32020,23 +32142,25 @@
       <c r="AA5" s="10"/>
       <c r="AB5" s="10"/>
     </row>
-    <row r="6" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="90"/>
+    <row r="6" spans="1:28" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="51"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
@@ -32051,25 +32175,33 @@
       <c r="AB6" s="3"/>
     </row>
     <row r="7" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="112">
-        <f t="shared" ref="O7:O11" si="0">SUM(D7:N7)</f>
-        <v>0</v>
+      <c r="A7" s="17" t="s">
+        <v>22</v>
       </c>
-      <c r="P7" s="88"/>
+      <c r="B7" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="19">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D7" s="110">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="52">
+        <f t="shared" ref="O7:O10" si="0">SUM(D7:N7)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="P7" s="53"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
@@ -32084,25 +32216,33 @@
       <c r="AB7" s="3"/>
     </row>
     <row r="8" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="112">
+      <c r="A8" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="19">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="111">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.10416666666666667</v>
       </c>
-      <c r="P8" s="88"/>
+      <c r="P8" s="53"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
@@ -32117,25 +32257,33 @@
       <c r="AB8" s="3"/>
     </row>
     <row r="9" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="112">
+      <c r="A9" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="19">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="112">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="G9" s="26"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.6388888888888895E-2</v>
       </c>
-      <c r="P9" s="88"/>
+      <c r="P9" s="53"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
@@ -32149,26 +32297,34 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
     </row>
-    <row r="10" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="112">
+    <row r="10" spans="1:28" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="19">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D10" s="113">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
-      <c r="P10" s="88"/>
+      <c r="P10" s="53"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -32181,26 +32337,25 @@
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
     </row>
-    <row r="11" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="112">
-        <f t="shared" si="0"/>
-        <v>0</v>
+    <row r="11" spans="1:28" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
+        <v>27</v>
       </c>
-      <c r="P11" s="88"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="51"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
@@ -32214,23 +32369,34 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
     </row>
-    <row r="12" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="68"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="113"/>
-      <c r="P12" s="90"/>
+    <row r="12" spans="1:28" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="19">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="114">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="52">
+        <f>SUM(D12:N12)</f>
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="P12" s="53"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
@@ -32244,26 +32410,25 @@
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
     </row>
-    <row r="13" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="112">
-        <f>SUM(D13:N13)</f>
-        <v>0</v>
+    <row r="13" spans="1:28" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="27" t="s">
+        <v>29</v>
       </c>
-      <c r="P13" s="88"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="51"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
@@ -32277,23 +32442,34 @@
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
     </row>
-    <row r="14" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="68"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="113"/>
-      <c r="P14" s="90"/>
+    <row r="14" spans="1:28" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="19">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="115">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H14" s="21"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="52">
+        <f t="shared" ref="O14:O18" si="1">SUM(D14:N14)</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="P14" s="53"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -32307,26 +32483,36 @@
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
     </row>
-    <row r="15" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="74"/>
-      <c r="O15" s="112">
-        <f t="shared" ref="O15:O21" si="1">SUM(D15:N15)</f>
-        <v>0</v>
+    <row r="15" spans="1:28" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="32" t="s">
+        <v>30</v>
       </c>
-      <c r="P15" s="88"/>
+      <c r="B15" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="19">
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="116">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H15" s="34">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="I15" s="34"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="52">
+        <f t="shared" si="1"/>
+        <v>6.9444444444444448E-2</v>
+      </c>
+      <c r="P15" s="53"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -32340,26 +32526,36 @@
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
     </row>
-    <row r="16" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="112">
+    <row r="16" spans="1:28" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="19">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D16" s="35"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="34">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="I16" s="26">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="52">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
-      <c r="P16" s="88"/>
+      <c r="P16" s="53"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
@@ -32374,25 +32570,35 @@
       <c r="AB16" s="3"/>
     </row>
     <row r="17" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="112">
+      <c r="A17" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="19">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D17" s="35"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="26">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="J17" s="25">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="52">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
-      <c r="P17" s="88"/>
+      <c r="P17" s="53"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
@@ -32406,26 +32612,34 @@
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
     </row>
-    <row r="18" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="76"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="112">
+    <row r="18" spans="1:28" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="19">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D18" s="35"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="26">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="52">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
-      <c r="P18" s="88"/>
+      <c r="P18" s="53"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
@@ -32439,26 +32653,25 @@
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
     </row>
-    <row r="19" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="76"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="112">
-        <f t="shared" si="1"/>
-        <v>0</v>
+    <row r="19" spans="1:28" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="27" t="s">
+        <v>31</v>
       </c>
-      <c r="P19" s="88"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="51"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
@@ -32472,26 +32685,36 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
     </row>
-    <row r="20" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="112">
-        <f t="shared" si="1"/>
-        <v>0</v>
+    <row r="20" spans="1:28" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="32" t="s">
+        <v>32</v>
       </c>
-      <c r="P20" s="88"/>
+      <c r="B20" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="19">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="22">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="F20" s="22">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G20" s="34"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="52">
+        <f>SUM(D20:N20)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="P20" s="53"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
@@ -32505,26 +32728,25 @@
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
     </row>
-    <row r="21" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="112">
-        <f t="shared" si="1"/>
-        <v>0</v>
+    <row r="21" spans="1:28" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="27" t="s">
+        <v>33</v>
       </c>
-      <c r="P21" s="88"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="51"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
@@ -32539,22 +32761,53 @@
       <c r="AB21" s="3"/>
     </row>
     <row r="22" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="68"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="113"/>
-      <c r="P22" s="90"/>
+      <c r="A22" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="19">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="D22" s="24">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E22" s="24">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="F22" s="24">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="G22" s="24">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="H22" s="24">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="I22" s="24">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="J22" s="24">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="K22" s="24">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="L22" s="24">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="M22" s="24">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="N22" s="24">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="O22" s="52">
+        <f t="shared" ref="O22:O24" si="2">SUM(D22:N22)</f>
+        <v>7.6388888888888909E-2</v>
+      </c>
+      <c r="P22" s="53"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
@@ -32569,25 +32822,37 @@
       <c r="AB22" s="3"/>
     </row>
     <row r="23" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="74"/>
-      <c r="O23" s="112">
-        <f t="shared" ref="O23:O27" si="2">SUM(D23:N23)</f>
-        <v>0</v>
+      <c r="A23" s="32" t="s">
+        <v>35</v>
       </c>
-      <c r="P23" s="88"/>
+      <c r="B23" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="19">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="J23" s="25">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="K23" s="26">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="52">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P23" s="53"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
@@ -32601,26 +32866,36 @@
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
     </row>
-    <row r="24" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="112">
+    <row r="24" spans="1:28" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="19">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M24" s="25">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="N24" s="41"/>
+      <c r="O24" s="52">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
-      <c r="P24" s="88"/>
+      <c r="P24" s="53"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
@@ -32634,26 +32909,25 @@
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
     </row>
-    <row r="25" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="112">
-        <f t="shared" si="2"/>
-        <v>0</v>
+    <row r="25" spans="1:28" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="27" t="s">
+        <v>37</v>
       </c>
-      <c r="P25" s="88"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="51"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
@@ -32667,26 +32941,34 @@
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
     </row>
-    <row r="26" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="66"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="112">
-        <f t="shared" si="2"/>
-        <v>0</v>
+    <row r="26" spans="1:28" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="32" t="s">
+        <v>38</v>
       </c>
-      <c r="P26" s="88"/>
+      <c r="B26" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="42">
+        <v>0.375</v>
+      </c>
+      <c r="D26" s="20"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="43">
+        <v>0.375</v>
+      </c>
+      <c r="O26" s="52">
+        <f t="shared" ref="O26:O27" si="3">SUM(D26:N26)</f>
+        <v>0.375</v>
+      </c>
+      <c r="P26" s="53"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
@@ -32700,26 +32982,34 @@
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
     </row>
-    <row r="27" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="112">
-        <f t="shared" si="2"/>
-        <v>0</v>
+    <row r="27" spans="1:28" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="44" t="s">
+        <v>39</v>
       </c>
-      <c r="P27" s="88"/>
+      <c r="B27" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="45">
+        <v>0.375</v>
+      </c>
+      <c r="D27" s="46"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="O27" s="52">
+        <f t="shared" si="3"/>
+        <v>0.375</v>
+      </c>
+      <c r="P27" s="53"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
@@ -32733,23 +33023,62 @@
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
     </row>
-    <row r="28" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="68"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="113"/>
-      <c r="P28" s="90"/>
+    <row r="28" spans="1:28" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="54">
+        <f>SUM(C7:C27)</f>
+        <v>1.75</v>
+      </c>
+      <c r="D28" s="68">
+        <f t="shared" ref="D28:N28" si="4">SUM(D6:D27)</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E28" s="68">
+        <f t="shared" si="4"/>
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="F28" s="68">
+        <f t="shared" si="4"/>
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="G28" s="68">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="H28" s="68">
+        <f t="shared" si="4"/>
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="I28" s="68">
+        <f t="shared" si="4"/>
+        <v>0.11805555555555555</v>
+      </c>
+      <c r="J28" s="68">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="K28" s="68">
+        <f t="shared" si="4"/>
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="L28" s="68">
+        <f t="shared" si="4"/>
+        <v>4.8611111111111105E-2</v>
+      </c>
+      <c r="M28" s="68">
+        <f t="shared" si="4"/>
+        <v>4.8611111111111105E-2</v>
+      </c>
+      <c r="N28" s="68">
+        <f t="shared" si="4"/>
+        <v>0.75694444444444442</v>
+      </c>
+      <c r="O28" s="70">
+        <f>SUM(O6:P27)</f>
+        <v>1.75</v>
+      </c>
+      <c r="P28" s="71"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
@@ -32763,26 +33092,23 @@
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
     </row>
-    <row r="29" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="74"/>
-      <c r="O29" s="112">
-        <f t="shared" ref="O29:O32" si="3">SUM(D29:N29)</f>
-        <v>0</v>
-      </c>
-      <c r="P29" s="88"/>
+    <row r="29" spans="1:28" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="65"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
@@ -32796,26 +33122,23 @@
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
     </row>
-    <row r="30" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="60"/>
+    <row r="30" spans="1:28" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="73"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="74"/>
       <c r="D30" s="75"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="112">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="88"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="76"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="80"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
@@ -32830,25 +33153,22 @@
       <c r="AB30" s="3"/>
     </row>
     <row r="31" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="60"/>
+      <c r="A31" s="73"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="75"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="76"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="112">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="88"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="76"/>
+      <c r="O31" s="79"/>
+      <c r="P31" s="80"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
@@ -32863,25 +33183,22 @@
       <c r="AB31" s="3"/>
     </row>
     <row r="32" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="60"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="74"/>
       <c r="D32" s="75"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="112">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="88"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="76"/>
+      <c r="O32" s="79"/>
+      <c r="P32" s="80"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
@@ -32896,22 +33213,22 @@
       <c r="AB32" s="3"/>
     </row>
     <row r="33" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="68"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="71"/>
-      <c r="O33" s="113"/>
-      <c r="P33" s="90"/>
+      <c r="A33" s="81"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="84"/>
+      <c r="L33" s="84"/>
+      <c r="M33" s="84"/>
+      <c r="N33" s="84"/>
+      <c r="O33" s="87"/>
+      <c r="P33" s="88"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
@@ -32926,25 +33243,22 @@
       <c r="AB33" s="3"/>
     </row>
     <row r="34" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="74"/>
-      <c r="O34" s="112">
-        <f>SUM(D34:N34)</f>
-        <v>0</v>
-      </c>
-      <c r="P34" s="88"/>
+      <c r="A34" s="73"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="91"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="91"/>
+      <c r="M34" s="91"/>
+      <c r="N34" s="90"/>
+      <c r="O34" s="79"/>
+      <c r="P34" s="80"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
@@ -32959,24 +33273,22 @@
       <c r="AB34" s="3"/>
     </row>
     <row r="35" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="68"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="72"/>
-      <c r="N35" s="71"/>
-      <c r="O35" s="113"/>
-      <c r="P35" s="90"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="86"/>
+      <c r="L35" s="86"/>
+      <c r="M35" s="86"/>
+      <c r="N35" s="84"/>
+      <c r="O35" s="87"/>
+      <c r="P35" s="88"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
@@ -32991,27 +33303,22 @@
       <c r="AB35" s="3"/>
     </row>
     <row r="36" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="74"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="63"/>
-      <c r="L36" s="63"/>
-      <c r="M36" s="63"/>
-      <c r="N36" s="74"/>
-      <c r="O36" s="112">
-        <f t="shared" ref="O36:O39" si="4">SUM(D36:N36)</f>
-        <v>0</v>
-      </c>
-      <c r="P36" s="88"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="92"/>
+      <c r="I36" s="90"/>
+      <c r="J36" s="92"/>
+      <c r="K36" s="92"/>
+      <c r="L36" s="92"/>
+      <c r="M36" s="92"/>
+      <c r="N36" s="90"/>
+      <c r="O36" s="79"/>
+      <c r="P36" s="80"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
@@ -33026,27 +33333,22 @@
       <c r="AB36" s="3"/>
     </row>
     <row r="37" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="66"/>
-      <c r="L37" s="66"/>
-      <c r="M37" s="66"/>
-      <c r="N37" s="66"/>
-      <c r="O37" s="112">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P37" s="88"/>
+      <c r="A37" s="73"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="76"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="76"/>
+      <c r="M37" s="76"/>
+      <c r="N37" s="76"/>
+      <c r="O37" s="79"/>
+      <c r="P37" s="80"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
@@ -33061,27 +33363,22 @@
       <c r="AB37" s="3"/>
     </row>
     <row r="38" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="66"/>
-      <c r="L38" s="66"/>
-      <c r="M38" s="66"/>
-      <c r="N38" s="66"/>
-      <c r="O38" s="112">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P38" s="88"/>
+      <c r="A38" s="73"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="76"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="76"/>
+      <c r="N38" s="76"/>
+      <c r="O38" s="79"/>
+      <c r="P38" s="80"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
@@ -33096,27 +33393,22 @@
       <c r="AB38" s="3"/>
     </row>
     <row r="39" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
-      <c r="K39" s="67"/>
-      <c r="L39" s="67"/>
-      <c r="M39" s="67"/>
-      <c r="N39" s="67"/>
-      <c r="O39" s="112">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P39" s="88"/>
+      <c r="A39" s="73"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="78"/>
+      <c r="I39" s="78"/>
+      <c r="J39" s="78"/>
+      <c r="K39" s="78"/>
+      <c r="L39" s="78"/>
+      <c r="M39" s="78"/>
+      <c r="N39" s="78"/>
+      <c r="O39" s="79"/>
+      <c r="P39" s="80"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
@@ -33131,24 +33423,22 @@
       <c r="AB39" s="3"/>
     </row>
     <row r="40" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="68"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="72"/>
-      <c r="K40" s="72"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="72"/>
-      <c r="N40" s="72"/>
-      <c r="O40" s="113"/>
-      <c r="P40" s="90"/>
+      <c r="A40" s="81"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
+      <c r="J40" s="86"/>
+      <c r="K40" s="86"/>
+      <c r="L40" s="86"/>
+      <c r="M40" s="86"/>
+      <c r="N40" s="86"/>
+      <c r="O40" s="87"/>
+      <c r="P40" s="88"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
@@ -33163,33 +33453,22 @@
       <c r="AB40" s="3"/>
     </row>
     <row r="41" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="60">
-        <v>0.375</v>
-      </c>
-      <c r="D41" s="61"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="63"/>
-      <c r="J41" s="63"/>
-      <c r="K41" s="63"/>
-      <c r="L41" s="63"/>
-      <c r="M41" s="63"/>
-      <c r="N41" s="63">
-        <v>0.375</v>
-      </c>
-      <c r="O41" s="112">
-        <f t="shared" ref="O41:O42" si="5">SUM(D41:N41)</f>
-        <v>0.375</v>
-      </c>
-      <c r="P41" s="88"/>
+      <c r="A41" s="73"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="94"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="92"/>
+      <c r="G41" s="92"/>
+      <c r="H41" s="92"/>
+      <c r="I41" s="92"/>
+      <c r="J41" s="92"/>
+      <c r="K41" s="92"/>
+      <c r="L41" s="92"/>
+      <c r="M41" s="92"/>
+      <c r="N41" s="92"/>
+      <c r="O41" s="79"/>
+      <c r="P41" s="80"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
@@ -33204,33 +33483,22 @@
       <c r="AB41" s="3"/>
     </row>
     <row r="42" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="79">
-        <v>0.375</v>
-      </c>
-      <c r="D42" s="80"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="82"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="82"/>
-      <c r="I42" s="81"/>
-      <c r="J42" s="82"/>
-      <c r="K42" s="82"/>
-      <c r="L42" s="82"/>
-      <c r="M42" s="82"/>
-      <c r="N42" s="81">
-        <v>0.375</v>
-      </c>
-      <c r="O42" s="112">
-        <f t="shared" si="5"/>
-        <v>0.375</v>
-      </c>
-      <c r="P42" s="88"/>
+      <c r="A42" s="96"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="97"/>
+      <c r="D42" s="98"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="100"/>
+      <c r="G42" s="99"/>
+      <c r="H42" s="100"/>
+      <c r="I42" s="99"/>
+      <c r="J42" s="100"/>
+      <c r="K42" s="100"/>
+      <c r="L42" s="100"/>
+      <c r="M42" s="100"/>
+      <c r="N42" s="99"/>
+      <c r="O42" s="79"/>
+      <c r="P42" s="80"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
@@ -33245,61 +33513,22 @@
       <c r="AB42" s="3"/>
     </row>
     <row r="43" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="111">
-        <f t="shared" ref="C43:N43" si="6">SUM(C6:C42)</f>
-        <v>0.75</v>
-      </c>
-      <c r="D43" s="110">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E43" s="110">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="110">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="110">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="110">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="110">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="110">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="110">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L43" s="110">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M43" s="110">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N43" s="110">
-        <f t="shared" si="6"/>
-        <v>0.75</v>
-      </c>
-      <c r="O43" s="83"/>
-      <c r="P43" s="84">
-        <f>SUM(O6:P42)</f>
-        <v>0.75</v>
-      </c>
+      <c r="A43" s="101"/>
+      <c r="B43" s="101"/>
+      <c r="C43" s="102"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="103"/>
+      <c r="F43" s="103"/>
+      <c r="G43" s="103"/>
+      <c r="H43" s="103"/>
+      <c r="I43" s="103"/>
+      <c r="J43" s="103"/>
+      <c r="K43" s="103"/>
+      <c r="L43" s="103"/>
+      <c r="M43" s="103"/>
+      <c r="N43" s="103"/>
+      <c r="O43" s="104"/>
+      <c r="P43" s="105"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
@@ -33314,25 +33543,22 @@
       <c r="AB43" s="3"/>
     </row>
     <row r="44" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="100"/>
-      <c r="D44" s="92"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="92"/>
-      <c r="G44" s="92"/>
-      <c r="H44" s="92"/>
-      <c r="I44" s="92"/>
-      <c r="J44" s="92"/>
-      <c r="K44" s="92"/>
-      <c r="L44" s="92"/>
-      <c r="M44" s="92"/>
-      <c r="N44" s="92"/>
-      <c r="O44" s="85">
-        <f>SUM(D43:N44)</f>
-        <v>0.75</v>
-      </c>
-      <c r="P44" s="86"/>
+      <c r="A44" s="101"/>
+      <c r="B44" s="101"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="107"/>
+      <c r="E44" s="107"/>
+      <c r="F44" s="107"/>
+      <c r="G44" s="107"/>
+      <c r="H44" s="107"/>
+      <c r="I44" s="107"/>
+      <c r="J44" s="107"/>
+      <c r="K44" s="107"/>
+      <c r="L44" s="107"/>
+      <c r="M44" s="107"/>
+      <c r="N44" s="107"/>
+      <c r="O44" s="108"/>
+      <c r="P44" s="109"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
@@ -62027,47 +62253,27 @@
       <c r="AB1000" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="O4:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="O40:P40"/>
+  <mergeCells count="65">
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="O28:P29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
     <mergeCell ref="O41:P41"/>
     <mergeCell ref="O42:P42"/>
     <mergeCell ref="J43:J44"/>
@@ -62075,100 +62281,166 @@
     <mergeCell ref="L43:L44"/>
     <mergeCell ref="M43:M44"/>
     <mergeCell ref="N43:N44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="O4:P5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D36 F36 H36 J36:M36">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="14" operator="greaterThan">
       <formula>0.00001157407407</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:N7 D8:D12 D14:D35 D37:D42 F8:F12 F14:F35 F37:F42 G39:G40 H8:H12 H14:H22 H28:H35 H37:H42 I23:I27 I39:M40 J8:M12 J14:M35 J37:M38 J41:M42">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="D30:D35 D37:D42 F30:F35 F37:F42 G39:G40 H30:H35 H37:H42 I39:M40 J30:M35 J37:M38 J41:M42">
+    <cfRule type="cellIs" dxfId="26" priority="15" operator="greaterThan">
       <formula>0.00001157407407</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:N12 D14:N22 D23:G27 D28:N42 I23:N27">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="D30:N42">
+    <cfRule type="cellIs" dxfId="25" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:N36">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:N43">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="18" operator="equal">
+      <formula>0.3333333333</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39:E40 H39:H40 N39:N40">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41 G41 I41 N41">
+    <cfRule type="cellIs" dxfId="19" priority="22" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
+    <cfRule type="cellIs" dxfId="18" priority="23" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="cellIs" dxfId="17" priority="24" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41:M41">
+    <cfRule type="cellIs" dxfId="16" priority="25" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N38:N40">
+    <cfRule type="cellIs" dxfId="15" priority="26" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O32 O34 O36:O39 O41:O42">
+    <cfRule type="cellIs" dxfId="12" priority="29" operator="equal">
+      <formula>$C30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:N29">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:N28">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>0.3333333333</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
       <formula>0.00001157407407</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39:E40 H39:H40 N39:N40">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
+  <conditionalFormatting sqref="E24:E25 H24:H25 N24:N25">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
       <formula>0.00001157407407</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41 G41 I41 N41">
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="greaterThan">
+  <conditionalFormatting sqref="E26 G26 I26 N26:N27">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
       <formula>0.00001157407407</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="cellIs" dxfId="6" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="F26">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
       <formula>0.00001157407407</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="5" priority="12" operator="greaterThan">
+  <conditionalFormatting sqref="H26">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="greaterThan">
       <formula>0.00001157407407</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J41:M41">
-    <cfRule type="cellIs" dxfId="4" priority="13" operator="greaterThan">
+  <conditionalFormatting sqref="J26:M26">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThan">
       <formula>0.00001157407407</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N38:N40">
-    <cfRule type="cellIs" dxfId="3" priority="14" operator="greaterThan">
+  <conditionalFormatting sqref="N23:N25">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="greaterThan">
       <formula>0.00001157407407</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O7:O11">
-    <cfRule type="cellIs" dxfId="2" priority="15" operator="equal">
+  <conditionalFormatting sqref="O7:O10 O12">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
       <formula>$C7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O13">
-    <cfRule type="cellIs" dxfId="1" priority="16" operator="equal">
-      <formula>$C13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O15:O21 O23:O27 O29:O32 O34 O36:O39 O41:O42">
-    <cfRule type="cellIs" dxfId="0" priority="17" operator="equal">
-      <formula>$C15</formula>
+  <conditionalFormatting sqref="O14:O29">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+      <formula>$C14</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="65" orientation="landscape"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/planning/Planning Provisionnel Atelier TPI.xlsx
+++ b/public/planning/Planning Provisionnel Atelier TPI.xlsx
@@ -806,7 +806,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -941,53 +941,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1006,10 +959,6 @@
     <xf numFmtId="20" fontId="6" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1028,10 +977,6 @@
     <xf numFmtId="20" fontId="6" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1069,18 +1014,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="8" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="8" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="8" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1106,11 +1043,86 @@
     <xf numFmtId="20" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="36">
     <dxf>
       <font>
         <b/>
@@ -1232,46 +1244,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDBE5F1"/>
-          <bgColor rgb="FFDBE5F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDBE5F1"/>
-          <bgColor rgb="FFDBE5F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFDBE5F1"/>
@@ -1328,14 +1300,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFC6EFCE"/>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDBE5F1"/>
-          <bgColor rgb="FFDBE5F1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1723,10 +1687,10 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="57"/>
+      <c r="E1" s="107"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -1816,13 +1780,13 @@
       <c r="AB3" s="3"/>
     </row>
     <row r="4" spans="1:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="100" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -1858,10 +1822,10 @@
       <c r="N4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="63"/>
+      <c r="P4" s="102"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
@@ -1876,9 +1840,9 @@
       <c r="AB4" s="3"/>
     </row>
     <row r="5" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
+      <c r="A5" s="97"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
       <c r="D5" s="9">
         <v>45670</v>
       </c>
@@ -1912,8 +1876,8 @@
       <c r="N5" s="9">
         <v>45740</v>
       </c>
-      <c r="O5" s="64"/>
-      <c r="P5" s="65"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="95"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
@@ -1944,8 +1908,8 @@
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="51"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="89"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
@@ -1982,11 +1946,11 @@
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
-      <c r="O7" s="52">
+      <c r="O7" s="86">
         <f t="shared" ref="O7:O10" si="0">SUM(D7:N7)</f>
         <v>0.10416666666666667</v>
       </c>
-      <c r="P7" s="53"/>
+      <c r="P7" s="87"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
@@ -2023,11 +1987,11 @@
       <c r="L8" s="25"/>
       <c r="M8" s="25"/>
       <c r="N8" s="26"/>
-      <c r="O8" s="52">
+      <c r="O8" s="86">
         <f t="shared" si="0"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="P8" s="53"/>
+      <c r="P8" s="87"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
@@ -2064,11 +2028,11 @@
       <c r="L9" s="25"/>
       <c r="M9" s="25"/>
       <c r="N9" s="26"/>
-      <c r="O9" s="52">
+      <c r="O9" s="86">
         <f t="shared" si="0"/>
         <v>7.6388888888888895E-2</v>
       </c>
-      <c r="P9" s="53"/>
+      <c r="P9" s="87"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
@@ -2105,11 +2069,11 @@
       <c r="L10" s="25"/>
       <c r="M10" s="25"/>
       <c r="N10" s="26"/>
-      <c r="O10" s="52">
+      <c r="O10" s="86">
         <f t="shared" si="0"/>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="P10" s="53"/>
+      <c r="P10" s="87"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -2139,8 +2103,8 @@
       <c r="L11" s="31"/>
       <c r="M11" s="31"/>
       <c r="N11" s="30"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="51"/>
+      <c r="O11" s="108"/>
+      <c r="P11" s="89"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
@@ -2177,11 +2141,11 @@
       <c r="L12" s="25"/>
       <c r="M12" s="25"/>
       <c r="N12" s="26"/>
-      <c r="O12" s="52">
+      <c r="O12" s="86">
         <f>SUM(D12:N12)</f>
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="P12" s="53"/>
+      <c r="P12" s="87"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
@@ -2212,8 +2176,8 @@
       <c r="L13" s="31"/>
       <c r="M13" s="31"/>
       <c r="N13" s="30"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="51"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="89"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
@@ -2250,11 +2214,11 @@
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
       <c r="N14" s="34"/>
-      <c r="O14" s="52">
+      <c r="O14" s="86">
         <f t="shared" ref="O14:O18" si="1">SUM(D14:N14)</f>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="P14" s="53"/>
+      <c r="P14" s="87"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -2293,11 +2257,11 @@
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
       <c r="N15" s="34"/>
-      <c r="O15" s="52">
+      <c r="O15" s="86">
         <f t="shared" si="1"/>
         <v>6.9444444444444448E-2</v>
       </c>
-      <c r="P15" s="53"/>
+      <c r="P15" s="87"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -2336,11 +2300,11 @@
       <c r="L16" s="36"/>
       <c r="M16" s="36"/>
       <c r="N16" s="26"/>
-      <c r="O16" s="52">
+      <c r="O16" s="86">
         <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
-      <c r="P16" s="53"/>
+      <c r="P16" s="87"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
@@ -2379,11 +2343,11 @@
       <c r="L17" s="36"/>
       <c r="M17" s="36"/>
       <c r="N17" s="26"/>
-      <c r="O17" s="52">
+      <c r="O17" s="86">
         <f t="shared" si="1"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="P17" s="53"/>
+      <c r="P17" s="87"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
@@ -2420,11 +2384,11 @@
       <c r="L18" s="36"/>
       <c r="M18" s="36"/>
       <c r="N18" s="26"/>
-      <c r="O18" s="52">
+      <c r="O18" s="86">
         <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="P18" s="53"/>
+      <c r="P18" s="87"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
@@ -2455,8 +2419,8 @@
       <c r="L19" s="38"/>
       <c r="M19" s="38"/>
       <c r="N19" s="30"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="51"/>
+      <c r="O19" s="88"/>
+      <c r="P19" s="89"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
@@ -2495,11 +2459,11 @@
       <c r="L20" s="34"/>
       <c r="M20" s="34"/>
       <c r="N20" s="39"/>
-      <c r="O20" s="52">
+      <c r="O20" s="86">
         <f>SUM(D20:N20)</f>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="P20" s="53"/>
+      <c r="P20" s="87"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
@@ -2530,8 +2494,8 @@
       <c r="L21" s="31"/>
       <c r="M21" s="31"/>
       <c r="N21" s="30"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="51"/>
+      <c r="O21" s="88"/>
+      <c r="P21" s="89"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
@@ -2588,11 +2552,11 @@
       <c r="N22" s="24">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="O22" s="52">
+      <c r="O22" s="86">
         <f t="shared" ref="O22:O24" si="2">SUM(D22:N22)</f>
         <v>7.6388888888888909E-2</v>
       </c>
-      <c r="P22" s="53"/>
+      <c r="P22" s="87"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
@@ -2633,11 +2597,11 @@
       <c r="L23" s="26"/>
       <c r="M23" s="26"/>
       <c r="N23" s="40"/>
-      <c r="O23" s="52">
+      <c r="O23" s="86">
         <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="P23" s="53"/>
+      <c r="P23" s="87"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
@@ -2676,11 +2640,11 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="N24" s="41"/>
-      <c r="O24" s="52">
+      <c r="O24" s="86">
         <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="P24" s="53"/>
+      <c r="P24" s="87"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
@@ -2711,8 +2675,8 @@
       <c r="L25" s="31"/>
       <c r="M25" s="31"/>
       <c r="N25" s="31"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="51"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="89"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
@@ -2749,11 +2713,11 @@
       <c r="N26" s="43">
         <v>0.375</v>
       </c>
-      <c r="O26" s="52">
+      <c r="O26" s="86">
         <f t="shared" ref="O26:O27" si="3">SUM(D26:N26)</f>
         <v>0.375</v>
       </c>
-      <c r="P26" s="53"/>
+      <c r="P26" s="87"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
@@ -2790,11 +2754,11 @@
       <c r="N27" s="22">
         <v>0.375</v>
       </c>
-      <c r="O27" s="52">
+      <c r="O27" s="86">
         <f t="shared" si="3"/>
         <v>0.375</v>
       </c>
-      <c r="P27" s="53"/>
+      <c r="P27" s="87"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
@@ -2811,59 +2775,59 @@
     <row r="28" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="54">
+      <c r="C28" s="105">
         <f>SUM(C7:C27)</f>
         <v>1.75</v>
       </c>
-      <c r="D28" s="68">
+      <c r="D28" s="90">
         <f t="shared" ref="D28:N28" si="4">SUM(D6:D27)</f>
         <v>0.13194444444444445</v>
       </c>
-      <c r="E28" s="68">
+      <c r="E28" s="90">
         <f t="shared" si="4"/>
         <v>0.125</v>
       </c>
-      <c r="F28" s="68">
+      <c r="F28" s="90">
         <f t="shared" si="4"/>
         <v>0.10416666666666667</v>
       </c>
-      <c r="G28" s="68">
+      <c r="G28" s="90">
         <f t="shared" si="4"/>
         <v>0.125</v>
       </c>
-      <c r="H28" s="68">
+      <c r="H28" s="90">
         <f t="shared" si="4"/>
         <v>7.6388888888888895E-2</v>
       </c>
-      <c r="I28" s="68">
+      <c r="I28" s="90">
         <f t="shared" si="4"/>
         <v>0.11805555555555555</v>
       </c>
-      <c r="J28" s="68">
+      <c r="J28" s="90">
         <f t="shared" si="4"/>
         <v>0.125</v>
       </c>
-      <c r="K28" s="68">
+      <c r="K28" s="90">
         <f t="shared" si="4"/>
         <v>9.0277777777777776E-2</v>
       </c>
-      <c r="L28" s="68">
+      <c r="L28" s="90">
         <f t="shared" si="4"/>
         <v>4.8611111111111105E-2</v>
       </c>
-      <c r="M28" s="68">
+      <c r="M28" s="90">
         <f t="shared" si="4"/>
         <v>4.8611111111111105E-2</v>
       </c>
-      <c r="N28" s="68">
+      <c r="N28" s="90">
         <f t="shared" si="4"/>
         <v>0.75694444444444442</v>
       </c>
-      <c r="O28" s="70">
+      <c r="O28" s="92">
         <f>SUM(O6:P27)</f>
         <v>1.75</v>
       </c>
-      <c r="P28" s="71"/>
+      <c r="P28" s="93"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
@@ -2880,20 +2844,20 @@
     <row r="29" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="72"/>
-      <c r="P29" s="65"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="91"/>
+      <c r="L29" s="91"/>
+      <c r="M29" s="91"/>
+      <c r="N29" s="91"/>
+      <c r="O29" s="94"/>
+      <c r="P29" s="95"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
@@ -31797,23 +31761,13 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
     <mergeCell ref="N28:N29"/>
     <mergeCell ref="O28:P29"/>
     <mergeCell ref="A4:A5"/>
@@ -31825,76 +31779,86 @@
     <mergeCell ref="O26:P26"/>
     <mergeCell ref="O27:P27"/>
     <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="O12:P12"/>
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:N41 O37">
-    <cfRule type="cellIs" dxfId="40" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:N28">
-    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
       <formula>0.3333333333</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="38" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="greaterThan">
       <formula>0.00001157407407</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="37" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E25 H24:H25 N24:N25">
-    <cfRule type="cellIs" dxfId="36" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="5" operator="greaterThan">
       <formula>0.00001157407407</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26 G26 I26 N26:N27">
-    <cfRule type="cellIs" dxfId="35" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="6" operator="greaterThan">
       <formula>0.00001157407407</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="cellIs" dxfId="34" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="7" operator="greaterThan">
       <formula>0.00001157407407</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="33" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="8" operator="greaterThan">
       <formula>0.00001157407407</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:M26">
-    <cfRule type="cellIs" dxfId="32" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="9" operator="greaterThan">
       <formula>0.00001157407407</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23:N25">
-    <cfRule type="cellIs" dxfId="31" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="greaterThan">
       <formula>0.00001157407407</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7:O10 O12">
-    <cfRule type="cellIs" dxfId="30" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
       <formula>$C7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14:O33 O35:O38 O40:O41">
-    <cfRule type="cellIs" dxfId="29" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
       <formula>$C14</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31907,9 +31871,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q14" sqref="Q14"/>
+      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31938,10 +31902,10 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="57"/>
+      <c r="E1" s="107"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -32031,13 +31995,13 @@
       <c r="AB3" s="3"/>
     </row>
     <row r="4" spans="1:28" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="100" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -32073,10 +32037,10 @@
       <c r="N4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="63"/>
+      <c r="P4" s="102"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
@@ -32091,9 +32055,9 @@
       <c r="AB4" s="3"/>
     </row>
     <row r="5" spans="1:28" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
+      <c r="A5" s="97"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
       <c r="D5" s="9">
         <v>45670</v>
       </c>
@@ -32127,8 +32091,8 @@
       <c r="N5" s="9">
         <v>45740</v>
       </c>
-      <c r="O5" s="64"/>
-      <c r="P5" s="65"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="95"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
@@ -32159,8 +32123,8 @@
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="51"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="89"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
@@ -32182,9 +32146,10 @@
         <v>23</v>
       </c>
       <c r="C7" s="19">
+        <f>SUM(D7:N7)</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D7" s="110">
+      <c r="D7" s="79">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E7" s="21"/>
@@ -32197,11 +32162,11 @@
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
-      <c r="O7" s="52">
+      <c r="O7" s="86">
         <f t="shared" ref="O7:O10" si="0">SUM(D7:N7)</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="P7" s="53"/>
+      <c r="P7" s="87"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
@@ -32223,10 +32188,11 @@
         <v>23</v>
       </c>
       <c r="C8" s="19">
+        <f>SUM(D8:N8)</f>
         <v>0.10416666666666667</v>
       </c>
       <c r="D8" s="24"/>
-      <c r="E8" s="111">
+      <c r="E8" s="80">
         <v>0.10416666666666667</v>
       </c>
       <c r="F8" s="25"/>
@@ -32238,11 +32204,11 @@
       <c r="L8" s="25"/>
       <c r="M8" s="25"/>
       <c r="N8" s="26"/>
-      <c r="O8" s="52">
+      <c r="O8" s="86">
         <f t="shared" si="0"/>
         <v>0.10416666666666667</v>
       </c>
-      <c r="P8" s="53"/>
+      <c r="P8" s="87"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
@@ -32264,11 +32230,12 @@
         <v>23</v>
       </c>
       <c r="C9" s="19">
+        <f>SUM(D9:N9)</f>
         <v>7.6388888888888895E-2</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="26"/>
-      <c r="F9" s="112">
+      <c r="F9" s="81">
         <v>7.6388888888888895E-2</v>
       </c>
       <c r="G9" s="26"/>
@@ -32279,11 +32246,11 @@
       <c r="L9" s="25"/>
       <c r="M9" s="25"/>
       <c r="N9" s="26"/>
-      <c r="O9" s="52">
-        <f t="shared" si="0"/>
+      <c r="O9" s="86">
+        <f>SUM(D9:N9)</f>
         <v>7.6388888888888895E-2</v>
       </c>
-      <c r="P9" s="53"/>
+      <c r="P9" s="87"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
@@ -32305,9 +32272,10 @@
         <v>23</v>
       </c>
       <c r="C10" s="19">
+        <f>SUM(D10:N10)</f>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D10" s="113">
+      <c r="D10" s="82">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="E10" s="26"/>
@@ -32320,11 +32288,11 @@
       <c r="L10" s="25"/>
       <c r="M10" s="25"/>
       <c r="N10" s="26"/>
-      <c r="O10" s="52">
+      <c r="O10" s="86">
         <f t="shared" si="0"/>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="P10" s="53"/>
+      <c r="P10" s="87"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -32354,8 +32322,8 @@
       <c r="L11" s="31"/>
       <c r="M11" s="31"/>
       <c r="N11" s="30"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="51"/>
+      <c r="O11" s="108"/>
+      <c r="P11" s="89"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
@@ -32377,12 +32345,13 @@
         <v>23</v>
       </c>
       <c r="C12" s="19">
+        <f>SUM(D12:N12)</f>
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="26"/>
       <c r="F12" s="25"/>
-      <c r="G12" s="114">
+      <c r="G12" s="83">
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="H12" s="25"/>
@@ -32392,11 +32361,11 @@
       <c r="L12" s="25"/>
       <c r="M12" s="25"/>
       <c r="N12" s="26"/>
-      <c r="O12" s="52">
+      <c r="O12" s="86">
         <f>SUM(D12:N12)</f>
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="P12" s="53"/>
+      <c r="P12" s="87"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
@@ -32427,8 +32396,8 @@
       <c r="L13" s="31"/>
       <c r="M13" s="31"/>
       <c r="N13" s="30"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="51"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="89"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
@@ -32450,12 +32419,13 @@
         <v>23</v>
       </c>
       <c r="C14" s="19">
+        <f>SUM(D14:N14)</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="34"/>
       <c r="F14" s="22"/>
-      <c r="G14" s="115">
+      <c r="G14" s="84">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="H14" s="21"/>
@@ -32465,11 +32435,11 @@
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
       <c r="N14" s="34"/>
-      <c r="O14" s="52">
+      <c r="O14" s="86">
         <f t="shared" ref="O14:O18" si="1">SUM(D14:N14)</f>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="P14" s="53"/>
+      <c r="P14" s="87"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -32491,15 +32461,16 @@
         <v>23</v>
       </c>
       <c r="C15" s="19">
-        <v>6.9444444444444434E-2</v>
+        <f>SUM(D15:N15)</f>
+        <v>6.9444444444444448E-2</v>
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="34"/>
       <c r="F15" s="22"/>
-      <c r="G15" s="116">
+      <c r="G15" s="85">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="84">
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="I15" s="34"/>
@@ -32508,11 +32479,11 @@
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
       <c r="N15" s="34"/>
-      <c r="O15" s="52">
+      <c r="O15" s="86">
         <f t="shared" si="1"/>
         <v>6.9444444444444448E-2</v>
       </c>
-      <c r="P15" s="53"/>
+      <c r="P15" s="87"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -32534,28 +32505,29 @@
         <v>23</v>
       </c>
       <c r="C16" s="19">
-        <v>6.25E-2</v>
+        <f t="shared" ref="C15:C18" si="2">SUM(D16:N16)</f>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="26"/>
       <c r="F16" s="25"/>
       <c r="G16" s="26"/>
-      <c r="H16" s="34">
-        <v>4.1666666666666664E-2</v>
+      <c r="H16" s="117">
+        <v>5.5555555555555552E-2</v>
       </c>
-      <c r="I16" s="26">
-        <v>2.0833333333333332E-2</v>
+      <c r="I16" s="118">
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="36"/>
       <c r="M16" s="36"/>
       <c r="N16" s="26"/>
-      <c r="O16" s="52">
+      <c r="O16" s="86">
         <f t="shared" si="1"/>
-        <v>6.25E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
-      <c r="P16" s="53"/>
+      <c r="P16" s="87"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
@@ -32577,28 +32549,29 @@
         <v>23</v>
       </c>
       <c r="C17" s="19">
-        <v>8.3333333333333329E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="26"/>
       <c r="F17" s="25"/>
       <c r="G17" s="26"/>
       <c r="H17" s="34"/>
-      <c r="I17" s="26">
+      <c r="I17" s="119">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="J17" s="25">
-        <v>6.25E-2</v>
+      <c r="J17" s="120">
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="K17" s="36"/>
       <c r="L17" s="36"/>
       <c r="M17" s="36"/>
       <c r="N17" s="26"/>
-      <c r="O17" s="52">
+      <c r="O17" s="86">
         <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
+        <v>6.25E-2</v>
       </c>
-      <c r="P17" s="53"/>
+      <c r="P17" s="87"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
@@ -32620,6 +32593,7 @@
         <v>23</v>
       </c>
       <c r="C18" s="19">
+        <f>SUM(D18:N18)</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D18" s="35"/>
@@ -32627,7 +32601,7 @@
       <c r="F18" s="25"/>
       <c r="G18" s="26"/>
       <c r="H18" s="36"/>
-      <c r="I18" s="26">
+      <c r="I18" s="119">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="J18" s="36"/>
@@ -32635,11 +32609,11 @@
       <c r="L18" s="36"/>
       <c r="M18" s="36"/>
       <c r="N18" s="26"/>
-      <c r="O18" s="52">
+      <c r="O18" s="86">
         <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="P18" s="53"/>
+      <c r="P18" s="87"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
@@ -32670,8 +32644,8 @@
       <c r="L19" s="38"/>
       <c r="M19" s="38"/>
       <c r="N19" s="30"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="51"/>
+      <c r="O19" s="88"/>
+      <c r="P19" s="89"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
@@ -32693,13 +32667,14 @@
         <v>23</v>
       </c>
       <c r="C20" s="19">
+        <f>SUM(D20:N20)</f>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="D20" s="33"/>
-      <c r="E20" s="22">
+      <c r="E20" s="85">
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="85">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="G20" s="34"/>
@@ -32710,11 +32685,11 @@
       <c r="L20" s="34"/>
       <c r="M20" s="34"/>
       <c r="N20" s="39"/>
-      <c r="O20" s="52">
+      <c r="O20" s="86">
         <f>SUM(D20:N20)</f>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="P20" s="53"/>
+      <c r="P20" s="87"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
@@ -32745,8 +32720,8 @@
       <c r="L21" s="31"/>
       <c r="M21" s="31"/>
       <c r="N21" s="30"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="51"/>
+      <c r="O21" s="88"/>
+      <c r="P21" s="89"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
@@ -32768,30 +32743,31 @@
         <v>23</v>
       </c>
       <c r="C22" s="19">
-        <v>7.6388888888888895E-2</v>
+        <f>SUM(D22:N22)</f>
+        <v>7.6388888888888909E-2</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="82">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="82">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="82">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="82">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22" s="82">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="82">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="J22" s="24">
+      <c r="J22" s="82">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="K22" s="24">
+      <c r="K22" s="82">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="L22" s="24">
@@ -32803,11 +32779,11 @@
       <c r="N22" s="24">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="O22" s="52">
-        <f t="shared" ref="O22:O24" si="2">SUM(D22:N22)</f>
+      <c r="O22" s="86">
+        <f t="shared" ref="O22:O24" si="3">SUM(D22:N22)</f>
         <v>7.6388888888888909E-2</v>
       </c>
-      <c r="P22" s="53"/>
+      <c r="P22" s="87"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
@@ -32829,6 +32805,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="19">
+        <f>SUM(D23:N23)</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="D23" s="24"/>
@@ -32836,23 +32813,23 @@
       <c r="F23" s="26"/>
       <c r="G23" s="26"/>
       <c r="H23" s="25"/>
-      <c r="I23" s="25">
+      <c r="I23" s="83">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="J23" s="25">
+      <c r="J23" s="83">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="K23" s="26">
+      <c r="K23" s="119">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="L23" s="26"/>
       <c r="M23" s="26"/>
       <c r="N23" s="40"/>
-      <c r="O23" s="52">
-        <f t="shared" si="2"/>
+      <c r="O23" s="86">
+        <f t="shared" si="3"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="P23" s="53"/>
+      <c r="P23" s="87"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
@@ -32874,6 +32851,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="19">
+        <f>SUM(D24:N24)</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D24" s="24"/>
@@ -32891,11 +32869,11 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="N24" s="41"/>
-      <c r="O24" s="52">
-        <f t="shared" si="2"/>
+      <c r="O24" s="86">
+        <f t="shared" si="3"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="P24" s="53"/>
+      <c r="P24" s="87"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
@@ -32926,8 +32904,8 @@
       <c r="L25" s="31"/>
       <c r="M25" s="31"/>
       <c r="N25" s="31"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="51"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="89"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
@@ -32948,7 +32926,8 @@
       <c r="B26" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="42">
+      <c r="C26" s="19">
+        <f>SUM(D26:N26)</f>
         <v>0.375</v>
       </c>
       <c r="D26" s="20"/>
@@ -32964,11 +32943,11 @@
       <c r="N26" s="43">
         <v>0.375</v>
       </c>
-      <c r="O26" s="52">
-        <f t="shared" ref="O26:O27" si="3">SUM(D26:N26)</f>
+      <c r="O26" s="86">
+        <f t="shared" ref="O26:O27" si="4">SUM(D26:N26)</f>
         <v>0.375</v>
       </c>
-      <c r="P26" s="53"/>
+      <c r="P26" s="87"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
@@ -32989,7 +32968,8 @@
       <c r="B27" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="45">
+      <c r="C27" s="19">
+        <f>SUM(D27:N27)</f>
         <v>0.375</v>
       </c>
       <c r="D27" s="46"/>
@@ -33005,11 +32985,11 @@
       <c r="N27" s="22">
         <v>0.375</v>
       </c>
-      <c r="O27" s="52">
-        <f t="shared" si="3"/>
+      <c r="O27" s="86">
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
-      <c r="P27" s="53"/>
+      <c r="P27" s="87"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
@@ -33026,59 +33006,59 @@
     <row r="28" spans="1:28" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="54">
+      <c r="C28" s="105">
         <f>SUM(C7:C27)</f>
         <v>1.75</v>
       </c>
-      <c r="D28" s="68">
-        <f t="shared" ref="D28:N28" si="4">SUM(D6:D27)</f>
+      <c r="D28" s="90">
+        <f>SUM(D6:D27)</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="E28" s="68">
-        <f t="shared" si="4"/>
+      <c r="E28" s="90">
+        <f t="shared" ref="D28:N28" si="5">SUM(E6:E27)</f>
         <v>0.14583333333333334</v>
       </c>
-      <c r="F28" s="68">
-        <f t="shared" si="4"/>
+      <c r="F28" s="90">
+        <f>SUM(F6:F27)</f>
         <v>0.10416666666666667</v>
       </c>
-      <c r="G28" s="68">
-        <f t="shared" si="4"/>
+      <c r="G28" s="90">
+        <f t="shared" si="5"/>
         <v>0.125</v>
       </c>
-      <c r="H28" s="68">
-        <f t="shared" si="4"/>
-        <v>7.6388888888888895E-2</v>
-      </c>
-      <c r="I28" s="68">
-        <f t="shared" si="4"/>
-        <v>0.11805555555555555</v>
-      </c>
-      <c r="J28" s="68">
-        <f t="shared" si="4"/>
-        <v>0.125</v>
-      </c>
-      <c r="K28" s="68">
-        <f t="shared" si="4"/>
+      <c r="H28" s="90">
+        <f t="shared" si="5"/>
         <v>9.0277777777777776E-2</v>
       </c>
-      <c r="L28" s="68">
-        <f t="shared" si="4"/>
+      <c r="I28" s="90">
+        <f t="shared" si="5"/>
+        <v>0.12499999999999999</v>
+      </c>
+      <c r="J28" s="90">
+        <f t="shared" si="5"/>
+        <v>0.10416666666666666</v>
+      </c>
+      <c r="K28" s="90">
+        <f t="shared" si="5"/>
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="L28" s="90">
+        <f t="shared" si="5"/>
         <v>4.8611111111111105E-2</v>
       </c>
-      <c r="M28" s="68">
-        <f t="shared" si="4"/>
+      <c r="M28" s="90">
+        <f t="shared" si="5"/>
         <v>4.8611111111111105E-2</v>
       </c>
-      <c r="N28" s="68">
-        <f t="shared" si="4"/>
+      <c r="N28" s="90">
+        <f t="shared" si="5"/>
         <v>0.75694444444444442</v>
       </c>
-      <c r="O28" s="70">
+      <c r="O28" s="92">
         <f>SUM(O6:P27)</f>
         <v>1.75</v>
       </c>
-      <c r="P28" s="71"/>
+      <c r="P28" s="93"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
@@ -33095,20 +33075,20 @@
     <row r="29" spans="1:28" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="72"/>
-      <c r="P29" s="65"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="91"/>
+      <c r="L29" s="91"/>
+      <c r="M29" s="91"/>
+      <c r="N29" s="91"/>
+      <c r="O29" s="94"/>
+      <c r="P29" s="95"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
@@ -33123,22 +33103,22 @@
       <c r="AB29" s="3"/>
     </row>
     <row r="30" spans="1:28" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="73"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="77"/>
-      <c r="N30" s="76"/>
-      <c r="O30" s="79"/>
-      <c r="P30" s="80"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="113"/>
+      <c r="P30" s="114"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
@@ -33153,22 +33133,22 @@
       <c r="AB30" s="3"/>
     </row>
     <row r="31" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="73"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="77"/>
-      <c r="N31" s="76"/>
-      <c r="O31" s="79"/>
-      <c r="P31" s="80"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="113"/>
+      <c r="P31" s="114"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
@@ -33183,22 +33163,22 @@
       <c r="AB31" s="3"/>
     </row>
     <row r="32" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="73"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="77"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="79"/>
-      <c r="P32" s="80"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="113"/>
+      <c r="P32" s="114"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
@@ -33213,22 +33193,22 @@
       <c r="AB32" s="3"/>
     </row>
     <row r="33" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="81"/>
-      <c r="B33" s="81"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="86"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="84"/>
-      <c r="K33" s="84"/>
-      <c r="L33" s="84"/>
-      <c r="M33" s="84"/>
-      <c r="N33" s="84"/>
-      <c r="O33" s="87"/>
-      <c r="P33" s="88"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="115"/>
+      <c r="P33" s="116"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
@@ -33243,22 +33223,22 @@
       <c r="AB33" s="3"/>
     </row>
     <row r="34" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="73"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="91"/>
-      <c r="N34" s="90"/>
-      <c r="O34" s="79"/>
-      <c r="P34" s="80"/>
+      <c r="A34" s="50"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="64"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="113"/>
+      <c r="P34" s="114"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
@@ -33273,22 +33253,22 @@
       <c r="AB34" s="3"/>
     </row>
     <row r="35" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="81"/>
-      <c r="B35" s="81"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="86"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="86"/>
-      <c r="L35" s="86"/>
-      <c r="M35" s="86"/>
-      <c r="N35" s="84"/>
-      <c r="O35" s="87"/>
-      <c r="P35" s="88"/>
+      <c r="A35" s="56"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="61"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="115"/>
+      <c r="P35" s="116"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
@@ -33303,22 +33283,22 @@
       <c r="AB35" s="3"/>
     </row>
     <row r="36" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="73"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="92"/>
-      <c r="I36" s="90"/>
-      <c r="J36" s="92"/>
-      <c r="K36" s="92"/>
-      <c r="L36" s="92"/>
-      <c r="M36" s="92"/>
-      <c r="N36" s="90"/>
-      <c r="O36" s="79"/>
-      <c r="P36" s="80"/>
+      <c r="A36" s="50"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="113"/>
+      <c r="P36" s="114"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
@@ -33333,22 +33313,22 @@
       <c r="AB36" s="3"/>
     </row>
     <row r="37" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="73"/>
-      <c r="B37" s="73"/>
-      <c r="C37" s="74"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="76"/>
-      <c r="J37" s="76"/>
-      <c r="K37" s="76"/>
-      <c r="L37" s="76"/>
-      <c r="M37" s="76"/>
-      <c r="N37" s="76"/>
-      <c r="O37" s="79"/>
-      <c r="P37" s="80"/>
+      <c r="A37" s="50"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="113"/>
+      <c r="P37" s="114"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
@@ -33363,22 +33343,22 @@
       <c r="AB37" s="3"/>
     </row>
     <row r="38" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="73"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="76"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="76"/>
-      <c r="M38" s="76"/>
-      <c r="N38" s="76"/>
-      <c r="O38" s="79"/>
-      <c r="P38" s="80"/>
+      <c r="A38" s="50"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="53"/>
+      <c r="O38" s="113"/>
+      <c r="P38" s="114"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
@@ -33393,22 +33373,22 @@
       <c r="AB38" s="3"/>
     </row>
     <row r="39" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="73"/>
-      <c r="B39" s="73"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="78"/>
-      <c r="H39" s="78"/>
-      <c r="I39" s="78"/>
-      <c r="J39" s="78"/>
-      <c r="K39" s="78"/>
-      <c r="L39" s="78"/>
-      <c r="M39" s="78"/>
-      <c r="N39" s="78"/>
-      <c r="O39" s="79"/>
-      <c r="P39" s="80"/>
+      <c r="A39" s="50"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="55"/>
+      <c r="O39" s="113"/>
+      <c r="P39" s="114"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
@@ -33423,22 +33403,22 @@
       <c r="AB39" s="3"/>
     </row>
     <row r="40" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="81"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="93"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="86"/>
-      <c r="G40" s="86"/>
-      <c r="H40" s="86"/>
-      <c r="I40" s="86"/>
-      <c r="J40" s="86"/>
-      <c r="K40" s="86"/>
-      <c r="L40" s="86"/>
-      <c r="M40" s="86"/>
-      <c r="N40" s="86"/>
-      <c r="O40" s="87"/>
-      <c r="P40" s="88"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="61"/>
+      <c r="M40" s="61"/>
+      <c r="N40" s="61"/>
+      <c r="O40" s="115"/>
+      <c r="P40" s="116"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
@@ -33453,22 +33433,22 @@
       <c r="AB40" s="3"/>
     </row>
     <row r="41" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="73"/>
-      <c r="B41" s="73"/>
-      <c r="C41" s="74"/>
-      <c r="D41" s="94"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="92"/>
-      <c r="G41" s="92"/>
-      <c r="H41" s="92"/>
-      <c r="I41" s="92"/>
-      <c r="J41" s="92"/>
-      <c r="K41" s="92"/>
-      <c r="L41" s="92"/>
-      <c r="M41" s="92"/>
-      <c r="N41" s="92"/>
-      <c r="O41" s="79"/>
-      <c r="P41" s="80"/>
+      <c r="A41" s="50"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="65"/>
+      <c r="L41" s="65"/>
+      <c r="M41" s="65"/>
+      <c r="N41" s="65"/>
+      <c r="O41" s="113"/>
+      <c r="P41" s="114"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
@@ -33483,22 +33463,22 @@
       <c r="AB41" s="3"/>
     </row>
     <row r="42" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="96"/>
-      <c r="B42" s="96"/>
-      <c r="C42" s="97"/>
-      <c r="D42" s="98"/>
-      <c r="E42" s="99"/>
-      <c r="F42" s="100"/>
-      <c r="G42" s="99"/>
-      <c r="H42" s="100"/>
-      <c r="I42" s="99"/>
-      <c r="J42" s="100"/>
-      <c r="K42" s="100"/>
-      <c r="L42" s="100"/>
-      <c r="M42" s="100"/>
-      <c r="N42" s="99"/>
-      <c r="O42" s="79"/>
-      <c r="P42" s="80"/>
+      <c r="A42" s="69"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="73"/>
+      <c r="L42" s="73"/>
+      <c r="M42" s="73"/>
+      <c r="N42" s="72"/>
+      <c r="O42" s="113"/>
+      <c r="P42" s="114"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
@@ -33513,22 +33493,22 @@
       <c r="AB42" s="3"/>
     </row>
     <row r="43" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="101"/>
-      <c r="B43" s="101"/>
-      <c r="C43" s="102"/>
-      <c r="D43" s="103"/>
-      <c r="E43" s="103"/>
-      <c r="F43" s="103"/>
-      <c r="G43" s="103"/>
-      <c r="H43" s="103"/>
-      <c r="I43" s="103"/>
-      <c r="J43" s="103"/>
-      <c r="K43" s="103"/>
-      <c r="L43" s="103"/>
-      <c r="M43" s="103"/>
-      <c r="N43" s="103"/>
-      <c r="O43" s="104"/>
-      <c r="P43" s="105"/>
+      <c r="A43" s="74"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="111"/>
+      <c r="D43" s="109"/>
+      <c r="E43" s="109"/>
+      <c r="F43" s="109"/>
+      <c r="G43" s="109"/>
+      <c r="H43" s="109"/>
+      <c r="I43" s="109"/>
+      <c r="J43" s="109"/>
+      <c r="K43" s="109"/>
+      <c r="L43" s="109"/>
+      <c r="M43" s="109"/>
+      <c r="N43" s="109"/>
+      <c r="O43" s="75"/>
+      <c r="P43" s="76"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
@@ -33543,22 +33523,22 @@
       <c r="AB43" s="3"/>
     </row>
     <row r="44" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="101"/>
-      <c r="B44" s="101"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="107"/>
-      <c r="E44" s="107"/>
-      <c r="F44" s="107"/>
-      <c r="G44" s="107"/>
-      <c r="H44" s="107"/>
-      <c r="I44" s="107"/>
-      <c r="J44" s="107"/>
-      <c r="K44" s="107"/>
-      <c r="L44" s="107"/>
-      <c r="M44" s="107"/>
-      <c r="N44" s="107"/>
-      <c r="O44" s="108"/>
-      <c r="P44" s="109"/>
+      <c r="A44" s="74"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="112"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="110"/>
+      <c r="G44" s="110"/>
+      <c r="H44" s="110"/>
+      <c r="I44" s="110"/>
+      <c r="J44" s="110"/>
+      <c r="K44" s="110"/>
+      <c r="L44" s="110"/>
+      <c r="M44" s="110"/>
+      <c r="N44" s="110"/>
+      <c r="O44" s="77"/>
+      <c r="P44" s="78"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
@@ -62254,6 +62234,63 @@
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="O4:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
     <mergeCell ref="M28:M29"/>
     <mergeCell ref="N28:N29"/>
     <mergeCell ref="O28:P29"/>
@@ -62262,116 +62299,59 @@
     <mergeCell ref="J28:J29"/>
     <mergeCell ref="K28:K29"/>
     <mergeCell ref="L28:L29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="O4:P5"/>
   </mergeCells>
   <conditionalFormatting sqref="D36 F36 H36 J36:M36">
-    <cfRule type="cellIs" dxfId="27" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="14" operator="greaterThan">
       <formula>0.00001157407407</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:D35 D37:D42 F30:F35 F37:F42 G39:G40 H30:H35 H37:H42 I39:M40 J30:M35 J37:M38 J41:M42">
-    <cfRule type="cellIs" dxfId="26" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="15" operator="greaterThan">
       <formula>0.00001157407407</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:N42">
-    <cfRule type="cellIs" dxfId="25" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:N36">
-    <cfRule type="cellIs" dxfId="24" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:N43">
-    <cfRule type="cellIs" dxfId="23" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="18" operator="equal">
       <formula>0.3333333333</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:E40 H39:H40 N39:N40">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="greaterThan">
       <formula>0.00001157407407</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41 G41 I41 N41">
-    <cfRule type="cellIs" dxfId="19" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="greaterThan">
       <formula>0.00001157407407</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41">
-    <cfRule type="cellIs" dxfId="18" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="23" operator="greaterThan">
       <formula>0.00001157407407</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="17" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="24" operator="greaterThan">
       <formula>0.00001157407407</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:M41">
-    <cfRule type="cellIs" dxfId="16" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="25" operator="greaterThan">
       <formula>0.00001157407407</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N38:N40">
-    <cfRule type="cellIs" dxfId="15" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="26" operator="greaterThan">
       <formula>0.00001157407407</formula>
     </cfRule>
   </conditionalFormatting>
